--- a/四上/資訊系統專題/unmanedStore.xlsx
+++ b/四上/資訊系統專題/unmanedStore.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E8AE1-47C8-4895-B90A-8701D47FFAE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A940EF-76AB-4A26-8B82-4ABFEA980DFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMINISTRATOR" sheetId="1" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="2" r:id="rId2"/>
-    <sheet name="HISTORY" sheetId="4" r:id="rId3"/>
-    <sheet name="GOODS" sheetId="3" r:id="rId4"/>
+    <sheet name="QR_code" sheetId="5" r:id="rId3"/>
+    <sheet name="HISTORY" sheetId="4" r:id="rId4"/>
+    <sheet name="GOODS" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +79,42 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +134,21 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -121,8 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -431,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -453,6 +507,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -461,10 +543,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8FE8B3-2891-471E-B93F-5B3BF45729C0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2DAC7-D2A3-497D-B8FC-B4CB646339ED}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,13 +646,41 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -489,42 +689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2DAC7-D2A3-497D-B8FC-B4CB646339ED}">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,6 +719,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/四上/資訊系統專題/unmanedStore.xlsx
+++ b/四上/資訊系統專題/unmanedStore.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A940EF-76AB-4A26-8B82-4ABFEA980DFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5542ECF-068A-48DF-B9E6-15E0C9C99EC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="5835" windowWidth="12495" windowHeight="5310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMINISTRATOR" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,22 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,65 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -551,7 +509,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -559,10 +585,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -570,10 +599,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -581,6 +613,9 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -693,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/四上/資訊系統專題/unmanedStore.xlsx
+++ b/四上/資訊系統專題/unmanedStore.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5542ECF-068A-48DF-B9E6-15E0C9C99EC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887DF7A-2B3E-4D7A-B423-C307B7090104}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="5835" windowWidth="12495" windowHeight="5310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="9780" windowHeight="6570" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMINISTRATOR" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2DAC7-D2A3-497D-B8FC-B4CB646339ED}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,6 +725,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/四上/資訊系統專題/unmanedStore.xlsx
+++ b/四上/資訊系統專題/unmanedStore.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887DF7A-2B3E-4D7A-B423-C307B7090104}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC5541-8287-4940-87AC-822E026E2521}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="9780" windowHeight="6570" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMINISTRATOR" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2DAC7-D2A3-497D-B8FC-B4CB646339ED}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -731,54 +743,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -787,9 +805,12 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/四上/資訊系統專題/unmanedStore.xlsx
+++ b/四上/資訊系統專題/unmanedStore.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC5541-8287-4940-87AC-822E026E2521}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ADMINISTRATOR" sheetId="1" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="QR_code" sheetId="5" r:id="rId3"/>
     <sheet name="HISTORY" sheetId="4" r:id="rId4"/>
     <sheet name="GOODS" sheetId="3" r:id="rId5"/>
+    <sheet name="UserWalletUser" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,13 +147,21 @@
   </si>
   <si>
     <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalletPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +246,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -516,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -584,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -642,7 +650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8FE8B3-2891-471E-B93F-5B3BF45729C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -683,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF2DAC7-D2A3-497D-B8FC-B4CB646339ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -742,10 +750,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -819,4 +827,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>